--- a/jenny_CMF/data/etude.xlsx
+++ b/jenny_CMF/data/etude.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80636D5-F5B2-4CB8-94A2-D139FB7520F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="27">
   <si>
     <t>nbre patients</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t>gauche</t>
-  </si>
-  <si>
-    <t>gauhe</t>
   </si>
   <si>
     <t>fente opérée</t>
@@ -108,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,32 +426,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,46 +459,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,16 +521,16 @@
         <v>2016</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>8</v>
@@ -544,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -570,16 +568,16 @@
         <v>2017</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -591,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -617,16 +615,16 @@
         <v>2022</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -638,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -664,22 +662,22 @@
         <v>2016</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -702,16 +700,16 @@
         <v>2013</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -723,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -749,22 +747,22 @@
         <v>2014</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -787,16 +785,16 @@
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -808,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -834,16 +832,16 @@
         <v>2019</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -855,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -881,16 +879,16 @@
         <v>2016</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -902,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -913,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -928,16 +926,16 @@
         <v>2013</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -949,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -975,16 +973,16 @@
         <v>2013</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12">
         <v>2.8</v>
@@ -996,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1022,16 +1020,16 @@
         <v>2013</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1043,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1069,22 +1067,22 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1107,22 +1105,22 @@
         <v>2020</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1145,22 +1143,22 @@
         <v>2015</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1183,22 +1181,22 @@
         <v>2015</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1221,16 +1219,16 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1242,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1268,16 +1266,16 @@
         <v>2015</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19">
         <v>1.6</v>
@@ -1289,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1315,22 +1313,22 @@
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1353,16 +1351,16 @@
         <v>2014</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1374,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1400,22 +1398,22 @@
         <v>2014</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1438,16 +1436,16 @@
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L23">
         <v>1.9</v>
@@ -1459,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1485,16 +1483,16 @@
         <v>2012</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -1506,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1532,16 +1530,16 @@
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25">
         <v>1.4</v>
@@ -1553,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1579,16 +1577,16 @@
         <v>2021</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26">
         <v>3.5</v>
@@ -1600,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1611,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1626,16 +1624,16 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27">
         <v>1.6</v>
@@ -1647,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1673,16 +1671,16 @@
         <v>2021</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28">
         <v>2.5</v>
@@ -1694,10 +1692,10 @@
         <v>4</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1720,22 +1718,22 @@
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1758,22 +1756,22 @@
         <v>2021</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1796,16 +1794,16 @@
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31">
         <v>3.8</v>
@@ -1817,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1843,16 +1841,16 @@
         <v>2017</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32">
         <v>4.5</v>
@@ -1864,10 +1862,10 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1890,16 +1888,16 @@
         <v>2015</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L33">
         <v>2.5</v>
@@ -1911,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1937,16 +1935,16 @@
         <v>2014</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34">
         <v>9</v>
@@ -1958,10 +1956,10 @@
         <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1984,16 +1982,16 @@
         <v>2021</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <v>3.8</v>
@@ -2005,10 +2003,10 @@
         <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2031,16 +2029,16 @@
         <v>2021</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -2052,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2078,22 +2076,22 @@
         <v>2017</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2116,22 +2114,22 @@
         <v>2018</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2154,22 +2152,22 @@
         <v>2013</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>3</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2192,16 +2190,16 @@
         <v>2021</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L40">
         <v>1.9</v>
@@ -2213,10 +2211,10 @@
         <v>3</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2239,16 +2237,16 @@
         <v>2020</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41">
         <v>6.5</v>
@@ -2260,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2286,16 +2284,16 @@
         <v>2022</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42">
         <v>7.7</v>
@@ -2307,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -2333,16 +2331,16 @@
         <v>2013</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43">
         <v>4.8</v>
@@ -2354,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -2380,16 +2378,16 @@
         <v>2015</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44">
         <v>4.0999999999999996</v>
@@ -2401,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -2427,16 +2425,16 @@
         <v>2018</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L45">
         <v>1.2</v>
@@ -2448,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -2474,22 +2472,22 @@
         <v>2017</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2512,16 +2510,16 @@
         <v>2011</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L47">
         <v>2.1</v>
@@ -2533,10 +2531,10 @@
         <v>3</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2559,22 +2557,22 @@
         <v>2011</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
@@ -2582,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -2597,22 +2595,22 @@
         <v>2011</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>3</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -2635,16 +2633,16 @@
         <v>2015</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L50">
         <v>1.9</v>
@@ -2656,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -2682,16 +2680,16 @@
         <v>2017</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L51">
         <v>3.4</v>
@@ -2703,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>47</v>
       </c>
@@ -2729,16 +2727,16 @@
         <v>2016</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L52">
         <v>1.1100000000000001</v>
@@ -2750,10 +2748,10 @@
         <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -2776,16 +2774,16 @@
         <v>2015</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L53">
         <v>2.6</v>
@@ -2797,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="O53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -2823,16 +2821,16 @@
         <v>2019</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L54">
         <v>2.8</v>
@@ -2844,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
@@ -2870,16 +2868,16 @@
         <v>2022</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55">
         <v>4</v>
@@ -2891,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="O55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
@@ -2917,16 +2915,16 @@
         <v>2010</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L56">
         <v>1.2</v>
@@ -2938,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
@@ -2964,16 +2962,16 @@
         <v>2012</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L57">
         <v>1.8</v>
@@ -2985,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="O57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
@@ -3011,22 +3009,22 @@
         <v>2013</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>3</v>
       </c>
       <c r="O58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
@@ -3049,16 +3047,16 @@
         <v>2011</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L59">
         <v>1.5</v>
@@ -3070,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -3096,22 +3094,22 @@
         <v>2022</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -3134,22 +3132,22 @@
         <v>2019</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
@@ -3172,16 +3170,16 @@
         <v>2014</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L62">
         <v>1.1000000000000001</v>
@@ -3193,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="O62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -3219,22 +3217,22 @@
         <v>2013</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
@@ -3257,16 +3255,16 @@
         <v>2015</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L64">
         <v>3.5</v>
@@ -3278,10 +3276,10 @@
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
@@ -3304,16 +3302,16 @@
         <v>2019</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65">
         <v>7.5</v>
@@ -3325,10 +3323,10 @@
         <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>59</v>
       </c>
@@ -3351,16 +3349,16 @@
         <v>2019</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66">
         <v>7.9</v>
@@ -3372,10 +3370,10 @@
         <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60</v>
       </c>
@@ -3398,16 +3396,16 @@
         <v>2018</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L67">
         <v>2.1</v>
@@ -3419,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="O67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>61</v>
       </c>
@@ -3445,16 +3443,16 @@
         <v>2013</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L68">
         <v>1.3</v>
@@ -3466,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="O68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>62</v>
       </c>
@@ -3492,22 +3490,22 @@
         <v>2015</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>63</v>
       </c>
@@ -3530,16 +3528,16 @@
         <v>2015</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L70">
         <v>2.2000000000000002</v>
@@ -3551,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>64</v>
       </c>
@@ -3577,16 +3575,16 @@
         <v>2022</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L71">
         <v>1.8</v>
@@ -3598,10 +3596,10 @@
         <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>65</v>
       </c>
@@ -3624,16 +3622,16 @@
         <v>2012</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L72">
         <v>1.4</v>
@@ -3645,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>66</v>
       </c>
@@ -3671,16 +3669,16 @@
         <v>2016</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L73">
         <v>2.1</v>
@@ -3692,10 +3690,10 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>67</v>
       </c>
@@ -3718,16 +3716,16 @@
         <v>2019</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L74">
         <v>2.4</v>
@@ -3739,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>68</v>
       </c>
@@ -3765,16 +3763,16 @@
         <v>2012</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L75">
         <v>4.5</v>
@@ -3786,10 +3784,10 @@
         <v>3</v>
       </c>
       <c r="O75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>69</v>
       </c>
@@ -3812,16 +3810,16 @@
         <v>2013</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L76">
         <v>1.5</v>
@@ -3833,10 +3831,10 @@
         <v>3</v>
       </c>
       <c r="O76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>70</v>
       </c>
@@ -3859,16 +3857,16 @@
         <v>2017</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L77">
         <v>1.2</v>
@@ -3880,10 +3878,10 @@
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>71</v>
       </c>
@@ -3906,22 +3904,22 @@
         <v>2019</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N78">
         <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>72</v>
       </c>
@@ -3944,16 +3942,16 @@
         <v>2014</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L79">
         <v>1.1000000000000001</v>
@@ -3965,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="O79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>73</v>
       </c>
@@ -3991,22 +3989,22 @@
         <v>2019</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N80">
         <v>3</v>
       </c>
       <c r="O80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>74</v>
       </c>
@@ -4029,16 +4027,16 @@
         <v>2020</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L81">
         <v>3.6</v>
@@ -4050,10 +4048,10 @@
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>75</v>
       </c>
@@ -4076,22 +4074,22 @@
         <v>2015</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N82">
         <v>3</v>
       </c>
       <c r="O82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>76</v>
       </c>
@@ -4114,16 +4112,16 @@
         <v>2018</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L83">
         <v>3.6</v>
@@ -4135,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="O83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>77</v>
       </c>
@@ -4161,22 +4159,22 @@
         <v>2017</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>78</v>
       </c>
@@ -4199,16 +4197,16 @@
         <v>2014</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L85">
         <v>2.9</v>
@@ -4220,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="O85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>79</v>
       </c>
@@ -4246,22 +4244,22 @@
         <v>2016</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>80</v>
       </c>
@@ -4284,16 +4282,16 @@
         <v>2019</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L87">
         <v>1.9</v>
@@ -4305,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="O87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>81</v>
       </c>
@@ -4331,22 +4329,22 @@
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N88">
         <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>82</v>
       </c>
@@ -4369,22 +4367,22 @@
         <v>2011</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N89">
         <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>83</v>
       </c>
@@ -4407,16 +4405,16 @@
         <v>2021</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -4428,10 +4426,10 @@
         <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>84</v>
       </c>
@@ -4454,16 +4452,16 @@
         <v>2017</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L91">
         <v>6.5</v>
@@ -4475,10 +4473,10 @@
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>85</v>
       </c>
@@ -4501,16 +4499,16 @@
         <v>2017</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L92">
         <v>1.3</v>
@@ -4522,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="O92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>86</v>
       </c>
@@ -4548,22 +4546,22 @@
         <v>2013</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N93">
         <v>3</v>
       </c>
       <c r="O93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>87</v>
       </c>
@@ -4586,16 +4584,16 @@
         <v>2017</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L94">
         <v>2.1</v>
@@ -4607,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>87</v>
       </c>
@@ -4633,16 +4631,16 @@
         <v>2017</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L95">
         <v>2.6</v>
@@ -4654,10 +4652,10 @@
         <v>2</v>
       </c>
       <c r="O95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>88</v>
       </c>
@@ -4680,16 +4678,16 @@
         <v>2014</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L96">
         <v>7</v>
@@ -4701,10 +4699,10 @@
         <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>89</v>
       </c>
@@ -4727,16 +4725,16 @@
         <v>2022</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L97">
         <v>2.2999999999999998</v>
@@ -4748,10 +4746,10 @@
         <v>2</v>
       </c>
       <c r="O97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>90</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -4774,16 +4772,16 @@
         <v>2016</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L98">
         <v>1.1100000000000001</v>
@@ -4795,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>91</v>
       </c>
@@ -4821,16 +4819,16 @@
         <v>2014</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L99">
         <v>2.1</v>
@@ -4842,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>92</v>
       </c>
@@ -4868,16 +4866,16 @@
         <v>2011</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L100">
         <v>3.6</v>
@@ -4889,10 +4887,10 @@
         <v>3</v>
       </c>
       <c r="O100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>93</v>
       </c>
@@ -4915,16 +4913,16 @@
         <v>2021</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L101">
         <v>1.9</v>
@@ -4936,10 +4934,10 @@
         <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>94</v>
       </c>
@@ -4962,16 +4960,16 @@
         <v>2017</v>
       </c>
       <c r="H102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -4983,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>95</v>
       </c>
@@ -5009,16 +5007,16 @@
         <v>2018</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L103">
         <v>1.5</v>
@@ -5030,10 +5028,10 @@
         <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>96</v>
       </c>
@@ -5056,16 +5054,16 @@
         <v>2015</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L104">
         <v>2.5</v>
@@ -5077,10 +5075,10 @@
         <v>5</v>
       </c>
       <c r="O104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>97</v>
       </c>
@@ -5103,16 +5101,16 @@
         <v>2013</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L105">
         <v>4.5999999999999996</v>
@@ -5124,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>98</v>
       </c>
@@ -5150,22 +5148,22 @@
         <v>2015</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N106">
         <v>3</v>
       </c>
       <c r="O106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>99</v>
       </c>
@@ -5188,16 +5186,16 @@
         <v>2019</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L107">
         <v>1.2</v>
@@ -5209,10 +5207,10 @@
         <v>2</v>
       </c>
       <c r="O107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>100</v>
       </c>
@@ -5235,16 +5233,16 @@
         <v>2013</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L108">
         <v>4.2</v>
@@ -5256,10 +5254,10 @@
         <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>101</v>
       </c>
@@ -5282,16 +5280,16 @@
         <v>2020</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L109">
         <v>1.3</v>
@@ -5303,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="O109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>102</v>
       </c>
@@ -5329,16 +5327,16 @@
         <v>2011</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L110">
         <v>2.4</v>
@@ -5350,10 +5348,10 @@
         <v>3</v>
       </c>
       <c r="O110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>103</v>
       </c>
@@ -5376,16 +5374,16 @@
         <v>2015</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L111">
         <v>1.1000000000000001</v>
@@ -5397,10 +5395,10 @@
         <v>3</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>104</v>
       </c>
@@ -5423,16 +5421,16 @@
         <v>2021</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L112">
         <v>1.1100000000000001</v>
@@ -5444,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="O112" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>105</v>
       </c>
@@ -5470,16 +5468,16 @@
         <v>2016</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L113">
         <v>1.1100000000000001</v>
@@ -5491,10 +5489,10 @@
         <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>106</v>
       </c>
@@ -5517,22 +5515,22 @@
         <v>2016</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N114">
         <v>3</v>
       </c>
       <c r="O114" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>107</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -5555,16 +5553,16 @@
         <v>2013</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L115">
         <v>6</v>
@@ -5576,10 +5574,10 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>108</v>
       </c>
@@ -5602,22 +5600,22 @@
         <v>2019</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N116">
         <v>4</v>
       </c>
       <c r="O116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>109</v>
       </c>
@@ -5640,16 +5638,16 @@
         <v>2016</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L117">
         <v>0.11</v>
@@ -5661,10 +5659,10 @@
         <v>3</v>
       </c>
       <c r="O117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>110</v>
       </c>
@@ -5687,16 +5685,16 @@
         <v>2017</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L118">
         <v>4.2</v>
@@ -5708,10 +5706,10 @@
         <v>2</v>
       </c>
       <c r="O118" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>111</v>
       </c>
@@ -5734,22 +5732,22 @@
         <v>2019</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N119">
         <v>2</v>
       </c>
       <c r="O119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>112</v>
       </c>
@@ -5772,16 +5770,16 @@
         <v>2013</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L120">
         <v>1.3</v>
@@ -5793,10 +5791,10 @@
         <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>113</v>
       </c>
@@ -5819,16 +5817,16 @@
         <v>2019</v>
       </c>
       <c r="H121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L121">
         <v>1.6</v>
@@ -5840,10 +5838,10 @@
         <v>2</v>
       </c>
       <c r="O121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>113</v>
       </c>
@@ -5866,16 +5864,16 @@
         <v>2020</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L122">
         <v>3</v>
@@ -5887,10 +5885,10 @@
         <v>2</v>
       </c>
       <c r="O122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>114</v>
       </c>
@@ -5913,16 +5911,16 @@
         <v>2014</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L123">
         <v>1.2</v>
@@ -5934,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="O123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>115</v>
       </c>
@@ -5960,16 +5958,16 @@
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L124">
         <v>1.9</v>
@@ -5981,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="O124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>115</v>
       </c>
@@ -6007,16 +6005,16 @@
         <v>2019</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L125">
         <v>2.11</v>
@@ -6028,10 +6026,10 @@
         <v>3</v>
       </c>
       <c r="O125" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>116</v>
       </c>
@@ -6054,16 +6052,16 @@
         <v>2014</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L126">
         <v>3.2</v>
@@ -6075,10 +6073,10 @@
         <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>117</v>
       </c>
@@ -6086,7 +6084,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -6101,16 +6099,16 @@
         <v>2015</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L127">
         <v>1.1000000000000001</v>
@@ -6122,10 +6120,10 @@
         <v>3</v>
       </c>
       <c r="O127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>118</v>
       </c>
@@ -6148,22 +6146,22 @@
         <v>2020</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N128">
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>119</v>
       </c>
@@ -6186,22 +6184,22 @@
         <v>2016</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N129">
         <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>120</v>
       </c>
@@ -6224,16 +6222,16 @@
         <v>2016</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L130">
         <v>1.3</v>
@@ -6245,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="O130" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>121</v>
       </c>
@@ -6271,16 +6269,16 @@
         <v>2015</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L131">
         <v>1.8</v>
@@ -6292,10 +6290,10 @@
         <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>122</v>
       </c>
@@ -6318,16 +6316,16 @@
         <v>2012</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L132">
         <v>1.1100000000000001</v>
@@ -6339,10 +6337,10 @@
         <v>3</v>
       </c>
       <c r="O132" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>123</v>
       </c>
@@ -6365,22 +6363,22 @@
         <v>2013</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N133">
         <v>3</v>
       </c>
       <c r="O133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>124</v>
       </c>
@@ -6403,16 +6401,16 @@
         <v>2014</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L134">
         <v>5</v>
@@ -6424,10 +6422,10 @@
         <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>125</v>
       </c>
@@ -6450,22 +6448,22 @@
         <v>2017</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N135">
         <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>126</v>
       </c>
@@ -6488,16 +6486,16 @@
         <v>2012</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L136">
         <v>2.1</v>
@@ -6509,10 +6507,10 @@
         <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>127</v>
       </c>
@@ -6535,16 +6533,16 @@
         <v>2014</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L137">
         <v>1.2</v>
@@ -6556,10 +6554,10 @@
         <v>3</v>
       </c>
       <c r="O137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>128</v>
       </c>
@@ -6582,22 +6580,22 @@
         <v>2016</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N138">
         <v>3</v>
       </c>
       <c r="O138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>129</v>
       </c>
@@ -6620,16 +6618,16 @@
         <v>2014</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L139">
         <v>1.5</v>
@@ -6641,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="O139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>130</v>
       </c>
@@ -6667,22 +6665,22 @@
         <v>2013</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N140">
         <v>3</v>
       </c>
       <c r="O140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>131</v>
       </c>
@@ -6705,16 +6703,16 @@
         <v>2021</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L141">
         <v>1.1100000000000001</v>
@@ -6726,10 +6724,10 @@
         <v>3</v>
       </c>
       <c r="O141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>132</v>
       </c>
@@ -6752,16 +6750,16 @@
         <v>2017</v>
       </c>
       <c r="H142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L142">
         <v>2</v>
@@ -6773,10 +6771,10 @@
         <v>3</v>
       </c>
       <c r="O142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>133</v>
       </c>
@@ -6799,22 +6797,22 @@
         <v>2017</v>
       </c>
       <c r="H143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N143">
         <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>134</v>
       </c>
@@ -6837,22 +6835,22 @@
         <v>2018</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N144">
         <v>3</v>
       </c>
       <c r="O144" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>135</v>
       </c>
@@ -6875,16 +6873,16 @@
         <v>2012</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L145">
         <v>2.9</v>
@@ -6896,10 +6894,10 @@
         <v>3</v>
       </c>
       <c r="O145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>136</v>
       </c>
@@ -6922,16 +6920,16 @@
         <v>2018</v>
       </c>
       <c r="H146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L146">
         <v>3.1</v>
@@ -6943,10 +6941,10 @@
         <v>2</v>
       </c>
       <c r="O146" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>136</v>
       </c>
@@ -6969,16 +6967,16 @@
         <v>2018</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L147">
         <v>3.8</v>
@@ -6990,10 +6988,10 @@
         <v>2</v>
       </c>
       <c r="O147" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>137</v>
       </c>
@@ -7016,16 +7014,16 @@
         <v>2017</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L148">
         <v>3.6</v>
@@ -7037,10 +7035,10 @@
         <v>2</v>
       </c>
       <c r="O148" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>137</v>
       </c>
@@ -7063,16 +7061,16 @@
         <v>2018</v>
       </c>
       <c r="H149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L149">
         <v>4.0999999999999996</v>
@@ -7084,10 +7082,10 @@
         <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>138</v>
       </c>
@@ -7110,16 +7108,16 @@
         <v>2018</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L150">
         <v>1.1100000000000001</v>
@@ -7131,10 +7129,10 @@
         <v>3</v>
       </c>
       <c r="O150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>139</v>
       </c>
@@ -7142,7 +7140,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -7157,16 +7155,16 @@
         <v>2012</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L151">
         <v>1.6</v>
@@ -7178,10 +7176,10 @@
         <v>3</v>
       </c>
       <c r="O151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>140</v>
       </c>
@@ -7204,16 +7202,16 @@
         <v>2012</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L152">
         <v>3.7</v>
@@ -7225,10 +7223,10 @@
         <v>7</v>
       </c>
       <c r="O152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>141</v>
       </c>
@@ -7251,16 +7249,16 @@
         <v>2018</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L153">
         <v>2.8</v>
@@ -7272,10 +7270,10 @@
         <v>3</v>
       </c>
       <c r="O153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>142</v>
       </c>
@@ -7298,16 +7296,16 @@
         <v>2014</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L154">
         <v>1.8</v>
@@ -7319,10 +7317,10 @@
         <v>3</v>
       </c>
       <c r="O154" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>143</v>
       </c>
@@ -7345,16 +7343,16 @@
         <v>2016</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L155">
         <v>2.5</v>
@@ -7366,10 +7364,10 @@
         <v>2</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>144</v>
       </c>
@@ -7392,16 +7390,16 @@
         <v>2017</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L156">
         <v>2.1</v>
@@ -7413,10 +7411,10 @@
         <v>3</v>
       </c>
       <c r="O156" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>145</v>
       </c>
@@ -7439,16 +7437,16 @@
         <v>2012</v>
       </c>
       <c r="H157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L157">
         <v>4.5999999999999996</v>
@@ -7460,10 +7458,10 @@
         <v>3</v>
       </c>
       <c r="O157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>146</v>
       </c>
@@ -7486,22 +7484,22 @@
         <v>2012</v>
       </c>
       <c r="H158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N158">
         <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>147</v>
       </c>
@@ -7524,16 +7522,16 @@
         <v>2013</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L159">
         <v>9</v>
@@ -7545,10 +7543,10 @@
         <v>3</v>
       </c>
       <c r="O159" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>148</v>
       </c>
@@ -7571,16 +7569,16 @@
         <v>2017</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L160">
         <v>1.1100000000000001</v>
@@ -7592,10 +7590,10 @@
         <v>2</v>
       </c>
       <c r="O160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>149</v>
       </c>
@@ -7618,16 +7616,16 @@
         <v>2016</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L161">
         <v>3.6</v>
@@ -7639,10 +7637,10 @@
         <v>3</v>
       </c>
       <c r="O161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>150</v>
       </c>
@@ -7665,16 +7663,16 @@
         <v>2021</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L162">
         <v>2.2999999999999998</v>
@@ -7686,10 +7684,10 @@
         <v>2</v>
       </c>
       <c r="O162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>151</v>
       </c>
@@ -7712,19 +7710,19 @@
         <v>2014</v>
       </c>
       <c r="H163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N163">
         <v>3</v>
       </c>
       <c r="O163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
